--- a/input/Input 09032020.xlsx
+++ b/input/Input 09032020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/east_alexander_epa_gov/Documents/Profile/Desktop/LEM4/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\LorberEgeghy4\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F41AB2F-85F5-4934-BF4C-663E21BDE459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEEAE12-6DFF-4C5E-82EB-059FCC1AD83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{954D9476-CD18-4396-BAEA-D273523A90CB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{954D9476-CD18-4396-BAEA-D273523A90CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Data_072020" sheetId="9" r:id="rId5"/>
     <sheet name="EFSA Cover " sheetId="13" r:id="rId6"/>
     <sheet name="EFSA Food" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Data_072020!$A$1:$AU$118</definedName>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="348">
   <si>
     <t>Chemical</t>
   </si>
@@ -792,9 +791,6 @@
     <t>EFSA Food:</t>
   </si>
   <si>
-    <t>A spreadsheet of concentration data extracted from multiple papers published since 2011.</t>
-  </si>
-  <si>
     <t>ng/kg bw/day</t>
   </si>
   <si>
@@ -952,18 +948,6 @@
   </si>
   <si>
     <t>Infants</t>
-  </si>
-  <si>
-    <t>UB 95th Exposure</t>
-  </si>
-  <si>
-    <t>LB 95th Exposure</t>
-  </si>
-  <si>
-    <t>UB Mean Exposure</t>
-  </si>
-  <si>
-    <t>LB Mean Exposure</t>
   </si>
   <si>
     <t xml:space="preserve">Number of subjects </t>
@@ -1161,64 +1145,19 @@
     <t>Site C (WWTP Effluent)</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">weight </t>
-  </si>
-  <si>
-    <t>food group</t>
-  </si>
-  <si>
-    <t>Grains</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>Peas</t>
-  </si>
-  <si>
-    <t>Bread</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>ng/g Rice</t>
-  </si>
-  <si>
-    <t>ng/g Bread</t>
-  </si>
-  <si>
-    <t>ng/g Grains</t>
-  </si>
-  <si>
-    <t>ng/g Veg</t>
-  </si>
-  <si>
-    <t>2 year old diet: 33% grains, 67% Veg</t>
-  </si>
-  <si>
-    <t>first time user estimates weight:</t>
-  </si>
-  <si>
-    <t>second time user estimates weight:</t>
-  </si>
-  <si>
-    <t>"how much does this particular food contribute to this dietary group by weight?"</t>
-  </si>
-  <si>
-    <t>"how much does this dietary group contribute to the individual's diet by percentage?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFH will be used as defaults. </t>
-  </si>
-  <si>
-    <t>assumption</t>
-  </si>
-  <si>
-    <t>Total:</t>
+    <t>Lower Bound Mean Exposure</t>
+  </si>
+  <si>
+    <t>Upper Bound Mean Exposure</t>
+  </si>
+  <si>
+    <t>Lower Bound 95th Exposure</t>
+  </si>
+  <si>
+    <t>Upper Bound 95th Exposure</t>
+  </si>
+  <si>
+    <t>A spreadsheet of concentration data extracted from multiple papers published from 2011-2017.</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1361,14 +1300,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1391,147 +1324,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1603,18 +1402,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{BA79CC6B-B4A5-44E8-8A0A-7F3A57C083B0}"/>
@@ -1998,116 +1785,116 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="1.1000000000000001">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="16"/>
     </row>
   </sheetData>
@@ -2130,14 +1917,14 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13">
         <v>12345</v>
       </c>
@@ -2158,26 +1945,26 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.68359375" customWidth="1"/>
+    <col min="4" max="4" width="17.1015625" customWidth="1"/>
+    <col min="5" max="5" width="23.68359375" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.44140625" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.3125" customWidth="1"/>
+    <col min="8" max="8" width="16.68359375" customWidth="1"/>
+    <col min="9" max="9" width="24.3125" customWidth="1"/>
+    <col min="10" max="10" width="27.41796875" customWidth="1"/>
+    <col min="11" max="11" width="28.3125" customWidth="1"/>
+    <col min="12" max="12" width="15.41796875" customWidth="1"/>
+    <col min="13" max="13" width="21.3125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="16" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="15" max="16" width="16.68359375" customWidth="1"/>
+    <col min="17" max="17" width="18.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2281,7 +2068,7 @@
         <v>13</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q2">
         <v>0.09</v>
@@ -2290,7 +2077,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2338,7 +2125,7 @@
         <v>71.3</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q3">
         <v>0.05</v>
@@ -2347,7 +2134,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
     </row>
@@ -2367,14 +2154,14 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5234375" customWidth="1"/>
+    <col min="2" max="2" width="31.68359375" customWidth="1"/>
+    <col min="3" max="3" width="25.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2183,7 @@
         <v>3.8999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
@@ -2419,46 +2206,46 @@
   </sheetPr>
   <dimension ref="A1:AV123"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R123" sqref="R123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="30.5546875" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" customWidth="1"/>
-    <col min="27" max="27" width="18.109375" customWidth="1"/>
-    <col min="28" max="28" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.20703125" customWidth="1"/>
+    <col min="3" max="3" width="48.5234375" customWidth="1"/>
+    <col min="4" max="4" width="13.89453125" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" customWidth="1"/>
+    <col min="6" max="6" width="10.68359375" customWidth="1"/>
+    <col min="7" max="7" width="21.1015625" customWidth="1"/>
+    <col min="8" max="8" width="23.68359375" customWidth="1"/>
+    <col min="9" max="9" width="30.5234375" customWidth="1"/>
+    <col min="10" max="10" width="17.5234375" customWidth="1"/>
+    <col min="11" max="11" width="28.41796875" customWidth="1"/>
+    <col min="12" max="12" width="8.89453125" customWidth="1"/>
+    <col min="13" max="13" width="14.20703125" customWidth="1"/>
+    <col min="16" max="16" width="9.20703125" customWidth="1"/>
+    <col min="27" max="27" width="18.1015625" customWidth="1"/>
+    <col min="28" max="28" width="6.89453125" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="17.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" customWidth="1"/>
-    <col min="33" max="33" width="10.88671875" customWidth="1"/>
-    <col min="34" max="34" width="12.21875" customWidth="1"/>
-    <col min="35" max="35" width="23.33203125" customWidth="1"/>
-    <col min="36" max="36" width="12.88671875" customWidth="1"/>
-    <col min="39" max="39" width="12.21875" customWidth="1"/>
-    <col min="40" max="40" width="17.5546875" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" customWidth="1"/>
-    <col min="42" max="42" width="21.109375" customWidth="1"/>
-    <col min="43" max="43" width="29.5546875" customWidth="1"/>
-    <col min="44" max="44" width="15.88671875" customWidth="1"/>
-    <col min="46" max="46" width="18.109375" customWidth="1"/>
-    <col min="47" max="47" width="26.6640625" customWidth="1"/>
+    <col min="30" max="30" width="17.5234375" customWidth="1"/>
+    <col min="31" max="31" width="16.68359375" customWidth="1"/>
+    <col min="32" max="32" width="11.1015625" customWidth="1"/>
+    <col min="33" max="33" width="10.89453125" customWidth="1"/>
+    <col min="34" max="34" width="12.20703125" customWidth="1"/>
+    <col min="35" max="35" width="23.3125" customWidth="1"/>
+    <col min="36" max="36" width="12.89453125" customWidth="1"/>
+    <col min="39" max="39" width="12.20703125" customWidth="1"/>
+    <col min="40" max="40" width="17.5234375" customWidth="1"/>
+    <col min="41" max="41" width="17.20703125" customWidth="1"/>
+    <col min="42" max="42" width="21.1015625" customWidth="1"/>
+    <col min="43" max="43" width="29.5234375" customWidth="1"/>
+    <col min="44" max="44" width="15.89453125" customWidth="1"/>
+    <col min="46" max="46" width="18.1015625" customWidth="1"/>
+    <col min="47" max="47" width="26.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="23" t="s">
         <v>247</v>
       </c>
@@ -2478,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>242</v>
@@ -2598,10 +2385,10 @@
         <v>204</v>
       </c>
       <c r="AU1" s="22" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
         <v>134</v>
       </c>
@@ -2621,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37">
@@ -2712,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="17" t="s">
         <v>134</v>
       </c>
@@ -2732,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37">
@@ -2824,7 +2611,7 @@
       </c>
       <c r="AV3" s="19"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="17" t="s">
         <v>46</v>
       </c>
@@ -2842,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H4" s="37">
         <v>10</v>
@@ -2931,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="17" t="s">
         <v>46</v>
       </c>
@@ -2949,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H5" s="37">
         <v>25</v>
@@ -3038,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="17" t="s">
         <v>46</v>
       </c>
@@ -3056,7 +2843,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H6" s="37">
         <v>0.04</v>
@@ -3091,7 +2878,7 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AC6" t="s">
         <v>67</v>
@@ -3148,7 +2935,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="17" t="s">
         <v>46</v>
       </c>
@@ -3166,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H7" s="37">
         <v>0.16</v>
@@ -3201,7 +2988,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AB7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AC7" t="s">
         <v>67</v>
@@ -3258,7 +3045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="17" t="s">
         <v>46</v>
       </c>
@@ -3276,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H8" s="37">
         <v>10</v>
@@ -3367,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="17" t="s">
         <v>46</v>
       </c>
@@ -3385,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H9" s="37">
         <v>25</v>
@@ -3476,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="17" t="s">
         <v>198</v>
       </c>
@@ -3496,7 +3283,7 @@
         <v>202</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="37">
@@ -3591,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="17" t="s">
         <v>198</v>
       </c>
@@ -3611,7 +3398,7 @@
         <v>201</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="37">
@@ -3706,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="17" t="s">
         <v>198</v>
       </c>
@@ -3726,7 +3513,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="37">
@@ -3824,7 +3611,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="17" t="s">
         <v>198</v>
       </c>
@@ -3844,7 +3631,7 @@
         <v>195</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="37">
@@ -3931,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="17" t="s">
         <v>134</v>
       </c>
@@ -3951,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="37">
@@ -4040,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="17" t="s">
         <v>134</v>
       </c>
@@ -4060,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="37">
@@ -4146,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="17" t="s">
         <v>46</v>
       </c>
@@ -4164,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H16" s="37">
         <v>0.6</v>
@@ -4245,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="17" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +4050,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H17" s="37">
         <v>0.6</v>
@@ -4345,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="17" t="s">
         <v>134</v>
       </c>
@@ -4365,7 +4152,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="37">
@@ -4451,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="17" t="s">
         <v>134</v>
       </c>
@@ -4471,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="37">
@@ -4559,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="17" t="s">
         <v>134</v>
       </c>
@@ -4579,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H20" s="37">
         <v>6.3</v>
@@ -4674,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="17" t="s">
         <v>134</v>
       </c>
@@ -4694,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H21" s="37">
         <v>0.15</v>
@@ -4788,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="17" t="s">
         <v>198</v>
       </c>
@@ -4808,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="37">
@@ -4894,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="17" t="s">
         <v>198</v>
       </c>
@@ -4914,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="37">
@@ -5008,7 +4795,7 @@
       </c>
       <c r="AU23" s="19"/>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="17" t="s">
         <v>134</v>
       </c>
@@ -5028,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H24" s="37">
         <v>1</v>
@@ -5116,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="17" t="s">
         <v>134</v>
       </c>
@@ -5136,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H25" s="37">
         <v>1</v>
@@ -5224,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="17" t="s">
         <v>46</v>
       </c>
@@ -5242,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H26" s="37">
         <v>0.6</v>
@@ -5323,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="17" t="s">
         <v>46</v>
       </c>
@@ -5341,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H27" s="37">
         <v>0.6</v>
@@ -5422,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="17" t="s">
         <v>46</v>
       </c>
@@ -5440,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="37">
@@ -5525,7 +5312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="17" t="s">
         <v>46</v>
       </c>
@@ -5543,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H29" s="37"/>
       <c r="I29" s="37">
@@ -5626,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="17" t="s">
         <v>46</v>
       </c>
@@ -5644,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H30" s="37">
         <v>10</v>
@@ -5735,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="17" t="s">
         <v>46</v>
       </c>
@@ -5753,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H31" s="37">
         <v>25</v>
@@ -5844,9 +5631,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B32" s="17">
         <v>550</v>
@@ -5864,7 +5651,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="37">
@@ -5953,9 +5740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B33" s="17">
         <v>550</v>
@@ -5973,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H33" s="37"/>
       <c r="I33" s="37">
@@ -6062,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="17" t="s">
         <v>46</v>
       </c>
@@ -6080,7 +5867,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H34" s="37">
         <v>10</v>
@@ -6174,7 +5961,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="17" t="s">
         <v>46</v>
       </c>
@@ -6192,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H35" s="37">
         <v>10</v>
@@ -6286,7 +6073,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="17" t="s">
         <v>134</v>
       </c>
@@ -6306,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="37">
@@ -6406,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="17" t="s">
         <v>134</v>
       </c>
@@ -6426,7 +6213,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="37">
@@ -6526,7 +6313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="17" t="s">
         <v>134</v>
       </c>
@@ -6546,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H38" s="37">
         <v>5</v>
@@ -6641,7 +6428,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="17" t="s">
         <v>134</v>
       </c>
@@ -6661,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H39" s="37">
         <v>7</v>
@@ -6753,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="17" t="s">
         <v>46</v>
       </c>
@@ -6771,7 +6558,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H40" s="37">
         <v>1.2</v>
@@ -6866,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="17" t="s">
         <v>46</v>
       </c>
@@ -6884,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H41" s="37">
         <v>0.8</v>
@@ -6975,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="17" t="s">
         <v>134</v>
       </c>
@@ -6995,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H42" s="37">
         <v>5</v>
@@ -7087,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="17" t="s">
         <v>134</v>
       </c>
@@ -7107,7 +6894,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H43" s="37">
         <v>7</v>
@@ -7199,9 +6986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B44" s="17">
         <v>550</v>
@@ -7219,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37">
@@ -7308,9 +7095,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B45" s="17">
         <v>550</v>
@@ -7328,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37">
@@ -7417,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="17" t="s">
         <v>46</v>
       </c>
@@ -7435,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H46" s="37">
         <v>2.7</v>
@@ -7524,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="17" t="s">
         <v>46</v>
       </c>
@@ -7542,7 +7329,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H47" s="37">
         <v>1.2</v>
@@ -7631,9 +7418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B48" s="17">
         <v>629</v>
@@ -7651,7 +7438,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H48" s="37" t="s">
         <v>120</v>
@@ -7747,9 +7534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B49" s="17">
         <v>629</v>
@@ -7767,7 +7554,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H49" s="37" t="s">
         <v>120</v>
@@ -7863,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="17" t="s">
         <v>46</v>
       </c>
@@ -7881,7 +7668,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H50" s="39">
         <v>1</v>
@@ -7981,7 +7768,7 @@
       </c>
       <c r="AU50" s="19"/>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="17" t="s">
         <v>46</v>
       </c>
@@ -7999,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H51" s="37">
         <v>0.04</v>
@@ -8085,7 +7872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="17" t="s">
         <v>46</v>
       </c>
@@ -8103,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H52" s="37">
         <v>0.16</v>
@@ -8189,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="17" t="s">
         <v>46</v>
       </c>
@@ -8207,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H53" s="37">
         <v>0.04</v>
@@ -8293,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="17" t="s">
         <v>46</v>
       </c>
@@ -8311,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H54" s="37">
         <v>0.16</v>
@@ -8397,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="17" t="s">
         <v>134</v>
       </c>
@@ -8417,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37">
@@ -8506,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="17" t="s">
         <v>134</v>
       </c>
@@ -8526,7 +8313,7 @@
         <v>2</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37">
@@ -8612,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="17" t="s">
         <v>134</v>
       </c>
@@ -8632,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37">
@@ -8718,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="17" t="s">
         <v>134</v>
       </c>
@@ -8738,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H58" s="37"/>
       <c r="I58" s="37">
@@ -8827,7 +8614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="17" t="s">
         <v>134</v>
       </c>
@@ -8847,7 +8634,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H59" s="37">
         <v>0.52</v>
@@ -8940,7 +8727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="17" t="s">
         <v>134</v>
       </c>
@@ -8960,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H60" s="37">
         <v>0.52</v>
@@ -9050,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="17" t="s">
         <v>134</v>
       </c>
@@ -9070,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H61" s="38">
         <v>1.1299999999999999</v>
@@ -9164,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="17" t="s">
         <v>134</v>
       </c>
@@ -9184,7 +8971,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H62" s="38">
         <v>1.1299999999999999</v>
@@ -9274,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="17" t="s">
         <v>134</v>
       </c>
@@ -9294,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H63" s="37"/>
       <c r="I63" s="37">
@@ -9380,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="17" t="s">
         <v>134</v>
       </c>
@@ -9400,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H64" s="37"/>
       <c r="I64" s="37">
@@ -9489,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="17" t="s">
         <v>46</v>
       </c>
@@ -9507,7 +9294,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H65" s="37">
         <v>10</v>
@@ -9601,7 +9388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="17" t="s">
         <v>46</v>
       </c>
@@ -9619,7 +9406,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H66" s="37">
         <v>10</v>
@@ -9713,7 +9500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="17" t="s">
         <v>46</v>
       </c>
@@ -9731,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H67" s="37">
         <v>2.7</v>
@@ -9820,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="17" t="s">
         <v>46</v>
       </c>
@@ -9838,7 +9625,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H68" s="37">
         <v>1.2</v>
@@ -9927,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="17" t="s">
         <v>134</v>
       </c>
@@ -9947,7 +9734,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H69" s="37">
         <v>1</v>
@@ -10036,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="17" t="s">
         <v>134</v>
       </c>
@@ -10056,7 +9843,7 @@
         <v>144</v>
       </c>
       <c r="G70" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H70" s="37">
         <v>0.5</v>
@@ -10145,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="17" t="s">
         <v>188</v>
       </c>
@@ -10165,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="G71" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H71" s="37">
         <v>0.46</v>
@@ -10244,7 +10031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="17" t="s">
         <v>188</v>
       </c>
@@ -10264,7 +10051,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H72" s="37">
         <v>1.52</v>
@@ -10343,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="17" t="s">
         <v>134</v>
       </c>
@@ -10363,7 +10150,7 @@
         <v>2</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H73" s="37">
         <v>0.52</v>
@@ -10454,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="17" t="s">
         <v>134</v>
       </c>
@@ -10474,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H74" s="38">
         <v>1.1299999999999999</v>
@@ -10568,7 +10355,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="17" t="s">
         <v>134</v>
       </c>
@@ -10588,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="G75" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H75" s="37">
         <v>5</v>
@@ -10680,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="17" t="s">
         <v>134</v>
       </c>
@@ -10700,7 +10487,7 @@
         <v>2</v>
       </c>
       <c r="G76" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H76" s="37">
         <v>7</v>
@@ -10792,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:47" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="17" t="s">
         <v>46</v>
       </c>
@@ -10810,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H77" s="39">
         <v>1</v>
@@ -10910,7 +10697,7 @@
       </c>
       <c r="AU77" s="19"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="17" t="s">
         <v>46</v>
       </c>
@@ -10928,7 +10715,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H78" s="37"/>
       <c r="I78" s="39">
@@ -11008,7 +10795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="17" t="s">
         <v>198</v>
       </c>
@@ -11028,7 +10815,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H79" s="37"/>
       <c r="I79" s="37">
@@ -11117,7 +10904,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="17" t="s">
         <v>198</v>
       </c>
@@ -11137,7 +10924,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H80" s="37"/>
       <c r="I80" s="37">
@@ -11229,7 +11016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="17" t="s">
         <v>188</v>
       </c>
@@ -11249,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H81" s="37">
         <v>0.46</v>
@@ -11328,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="17" t="s">
         <v>188</v>
       </c>
@@ -11348,7 +11135,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H82" s="37">
         <v>1.52</v>
@@ -11427,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="17" t="s">
         <v>46</v>
       </c>
@@ -11445,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H83" s="37">
         <v>4</v>
@@ -11536,7 +11323,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="17" t="s">
         <v>46</v>
       </c>
@@ -11554,7 +11341,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H84" s="37">
         <v>4</v>
@@ -11642,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="17" t="s">
         <v>188</v>
       </c>
@@ -11662,7 +11449,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H85" s="37">
         <v>1</v>
@@ -11754,7 +11541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="86" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="17" t="s">
         <v>188</v>
       </c>
@@ -11774,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H86" s="37">
         <v>1.9</v>
@@ -11866,7 +11653,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="17" t="s">
         <v>134</v>
       </c>
@@ -11886,7 +11673,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H87" s="37"/>
       <c r="I87" s="37">
@@ -11975,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" ht="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="17" t="s">
         <v>134</v>
       </c>
@@ -11995,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H88" s="37"/>
       <c r="I88" s="37">
@@ -12081,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="17" t="s">
         <v>134</v>
       </c>
@@ -12101,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="G89" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H89" s="37"/>
       <c r="I89" s="37">
@@ -12190,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="17" t="s">
         <v>134</v>
       </c>
@@ -12210,7 +11997,7 @@
         <v>2</v>
       </c>
       <c r="G90" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H90" s="37"/>
       <c r="I90" s="37">
@@ -12296,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="17" t="s">
         <v>134</v>
       </c>
@@ -12316,7 +12103,7 @@
         <v>2</v>
       </c>
       <c r="G91" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H91" s="37"/>
       <c r="I91" s="37">
@@ -12402,7 +12189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="17" t="s">
         <v>134</v>
       </c>
@@ -12422,7 +12209,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H92" s="37"/>
       <c r="I92" s="37">
@@ -12508,7 +12295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="17" t="s">
         <v>134</v>
       </c>
@@ -12528,7 +12315,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H93" s="37"/>
       <c r="I93" s="37">
@@ -12617,7 +12404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="17" t="s">
         <v>134</v>
       </c>
@@ -12637,7 +12424,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H94" s="37"/>
       <c r="I94" s="37">
@@ -12726,7 +12513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="17" t="s">
         <v>134</v>
       </c>
@@ -12746,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H95" s="37"/>
       <c r="I95" s="37">
@@ -12835,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="17" t="s">
         <v>134</v>
       </c>
@@ -12855,7 +12642,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H96" s="37"/>
       <c r="I96" s="37">
@@ -12944,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="17" t="s">
         <v>134</v>
       </c>
@@ -12964,7 +12751,7 @@
         <v>2</v>
       </c>
       <c r="G97" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H97" s="37"/>
       <c r="I97" s="37">
@@ -13052,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="17" t="s">
         <v>134</v>
       </c>
@@ -13072,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="G98" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H98" s="37"/>
       <c r="I98" s="37">
@@ -13160,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="17" t="s">
         <v>134</v>
       </c>
@@ -13180,7 +12967,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H99" s="37"/>
       <c r="I99" s="37">
@@ -13268,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="17" t="s">
         <v>134</v>
       </c>
@@ -13288,7 +13075,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H100" s="37"/>
       <c r="I100" s="37">
@@ -13377,9 +13164,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B101" s="17">
         <v>550</v>
@@ -13397,7 +13184,7 @@
         <v>2</v>
       </c>
       <c r="G101" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H101" s="37"/>
       <c r="I101" s="37">
@@ -13486,9 +13273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B102" s="17">
         <v>550</v>
@@ -13506,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H102" s="37"/>
       <c r="I102" s="37">
@@ -13595,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="17" t="s">
         <v>46</v>
       </c>
@@ -13613,7 +13400,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H103" s="37">
         <v>2.7</v>
@@ -13702,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="17" t="s">
         <v>46</v>
       </c>
@@ -13720,7 +13507,7 @@
         <v>2</v>
       </c>
       <c r="G104" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H104" s="37">
         <v>1.2</v>
@@ -13808,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="17" t="s">
         <v>46</v>
       </c>
@@ -13826,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H105" s="37">
         <v>2.7</v>
@@ -13915,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="17" t="s">
         <v>46</v>
       </c>
@@ -13933,7 +13720,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H106" s="37">
         <v>1.2</v>
@@ -14022,7 +13809,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="17" t="s">
         <v>134</v>
       </c>
@@ -14042,7 +13829,7 @@
         <v>1</v>
       </c>
       <c r="G107" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H107" s="37"/>
       <c r="I107" s="37">
@@ -14131,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="17" t="s">
         <v>134</v>
       </c>
@@ -14151,7 +13938,7 @@
         <v>2</v>
       </c>
       <c r="G108" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H108" s="37"/>
       <c r="I108" s="37">
@@ -14239,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="17" t="s">
         <v>46</v>
       </c>
@@ -14257,7 +14044,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H109" s="37">
         <v>0.3</v>
@@ -14344,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="17" t="s">
         <v>46</v>
       </c>
@@ -14362,7 +14149,7 @@
         <v>2</v>
       </c>
       <c r="G110" s="37" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H110" s="37">
         <v>0.08</v>
@@ -14449,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="17" t="s">
         <v>188</v>
       </c>
@@ -14469,7 +14256,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H111" s="37"/>
       <c r="I111" s="37">
@@ -14555,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="17" t="s">
         <v>188</v>
       </c>
@@ -14575,7 +14362,7 @@
         <v>2</v>
       </c>
       <c r="G112" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H112" s="37"/>
       <c r="I112" s="37">
@@ -14663,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="17" t="s">
         <v>46</v>
       </c>
@@ -14681,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="G113" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H113" s="37">
         <v>4</v>
@@ -14769,7 +14556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="17" t="s">
         <v>46</v>
       </c>
@@ -14787,7 +14574,7 @@
         <v>2</v>
       </c>
       <c r="G114" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H114" s="37">
         <v>4</v>
@@ -14875,12 +14662,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C115" s="17" t="s">
         <v>66</v>
@@ -14895,7 +14682,7 @@
         <v>1</v>
       </c>
       <c r="G115" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H115" s="37"/>
       <c r="I115" s="37">
@@ -14921,7 +14708,7 @@
         <v>26.53</v>
       </c>
       <c r="AA115" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC115" t="s">
         <v>85</v>
@@ -14942,7 +14729,7 @@
         <v>0</v>
       </c>
       <c r="AI115" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ115" t="s">
         <v>38</v>
@@ -14978,10 +14765,10 @@
         <v>0</v>
       </c>
       <c r="AU115" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="116" spans="1:47" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="17" t="s">
         <v>46</v>
       </c>
@@ -14999,7 +14786,7 @@
         <v>2</v>
       </c>
       <c r="G116" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H116" s="37">
         <v>0.04</v>
@@ -15079,7 +14866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="17" t="s">
         <v>46</v>
       </c>
@@ -15097,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H117" s="37">
         <v>0.16</v>
@@ -15183,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:47" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:47" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="17" t="s">
         <v>46</v>
       </c>
@@ -15201,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="G118" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H118" s="39">
         <v>1</v>
@@ -15303,12 +15090,12 @@
       </c>
       <c r="AU118" s="19"/>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C119" s="17" t="s">
         <v>66</v>
@@ -15323,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="G119" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H119" s="37"/>
       <c r="I119" s="37">
@@ -15349,7 +15136,7 @@
         <v>15.34</v>
       </c>
       <c r="AA119" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC119" t="s">
         <v>85</v>
@@ -15370,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="AI119" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ119" t="s">
         <v>38</v>
@@ -15406,15 +15193,15 @@
         <v>0</v>
       </c>
       <c r="AU119" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>66</v>
@@ -15429,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="G120" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H120" s="37"/>
       <c r="I120" s="37">
@@ -15455,7 +15242,7 @@
         <v>22.23</v>
       </c>
       <c r="AA120" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC120" t="s">
         <v>85</v>
@@ -15476,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="AI120" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ120" t="s">
         <v>38</v>
@@ -15512,15 +15299,15 @@
         <v>0</v>
       </c>
       <c r="AU120" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="121" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>66</v>
@@ -15535,7 +15322,7 @@
         <v>2</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H121" s="37"/>
       <c r="I121" s="37">
@@ -15561,7 +15348,7 @@
         <v>1.34</v>
       </c>
       <c r="AA121" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC121" t="s">
         <v>85</v>
@@ -15582,7 +15369,7 @@
         <v>0</v>
       </c>
       <c r="AI121" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ121" t="s">
         <v>38</v>
@@ -15618,15 +15405,15 @@
         <v>0</v>
       </c>
       <c r="AU121" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>66</v>
@@ -15641,7 +15428,7 @@
         <v>2</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H122" s="37"/>
       <c r="I122" s="37">
@@ -15667,7 +15454,7 @@
         <v>3</v>
       </c>
       <c r="AA122" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC122" t="s">
         <v>85</v>
@@ -15688,7 +15475,7 @@
         <v>0</v>
       </c>
       <c r="AI122" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ122" t="s">
         <v>38</v>
@@ -15724,15 +15511,15 @@
         <v>0</v>
       </c>
       <c r="AU122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:47" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C123" s="17" t="s">
         <v>66</v>
@@ -15747,7 +15534,7 @@
         <v>2</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H123" s="37"/>
       <c r="I123" s="37">
@@ -15773,7 +15560,7 @@
         <v>4.99</v>
       </c>
       <c r="AA123" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AC123" t="s">
         <v>85</v>
@@ -15794,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="AI123" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ123" t="s">
         <v>38</v>
@@ -15830,7 +15617,7 @@
         <v>0</v>
       </c>
       <c r="AU123" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -15847,26 +15634,26 @@
   <dimension ref="A5:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="26"/>
+    <col min="1" max="16384" width="9.1015625" style="26"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -15881,27 +15668,27 @@
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="26" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -15910,14 +15697,14 @@
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="26" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -15946,25 +15733,25 @@
   </sheetPr>
   <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7890625" customWidth="1"/>
+    <col min="2" max="2" width="23.1015625" customWidth="1"/>
+    <col min="3" max="3" width="19.20703125" customWidth="1"/>
+    <col min="4" max="4" width="19.41796875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="35.1015625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="19.89453125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="29.47265625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="27.7890625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="26.41796875" customWidth="1"/>
+    <col min="10" max="10" width="23.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -15972,45 +15759,45 @@
         <v>238</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>221</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="30">
         <v>859</v>
@@ -16028,21 +15815,21 @@
         <v>6.3676300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F3" s="30">
         <v>159</v>
@@ -16060,21 +15847,21 @@
         <v>6.3553800000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F4" s="30">
         <v>826</v>
@@ -16092,21 +15879,21 @@
         <v>13.99512</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="30">
         <v>500</v>
@@ -16124,21 +15911,21 @@
         <v>5.1538430000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F6" s="30">
         <v>1369</v>
@@ -16156,21 +15943,21 @@
         <v>7.9096840000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F7" s="30">
         <v>16</v>
@@ -16184,21 +15971,21 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F8" s="30">
         <v>36</v>
@@ -16212,21 +15999,21 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F9" s="30">
         <v>428</v>
@@ -16244,21 +16031,21 @@
         <v>10.206670000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="30">
         <v>348</v>
@@ -16276,21 +16063,21 @@
         <v>11.42037</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="30">
         <v>917</v>
@@ -16308,21 +16095,21 @@
         <v>14.551489999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F12" s="30">
         <v>17</v>
@@ -16336,21 +16123,21 @@
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" s="30">
         <v>500</v>
@@ -16368,21 +16155,21 @@
         <v>17.46012</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F14" s="30">
         <v>185</v>
@@ -16400,21 +16187,21 @@
         <v>13.98657</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F15" s="30">
         <v>1314</v>
@@ -16432,21 +16219,21 @@
         <v>15.95776</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" s="30">
         <v>36</v>
@@ -16460,21 +16247,21 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F17" s="30">
         <v>322</v>
@@ -16492,21 +16279,21 @@
         <v>11.18669</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F18" s="30">
         <v>128</v>
@@ -16524,21 +16311,21 @@
         <v>8.0531360000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F19" s="30">
         <v>625</v>
@@ -16556,21 +16343,21 @@
         <v>7.5264519999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F20" s="30">
         <v>433</v>
@@ -16588,21 +16375,21 @@
         <v>9.2212270000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F21" s="30">
         <v>389</v>
@@ -16620,21 +16407,21 @@
         <v>10.34493</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F22" s="30">
         <v>293</v>
@@ -16652,21 +16439,21 @@
         <v>8.684545</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F23" s="30">
         <v>835</v>
@@ -16684,21 +16471,21 @@
         <v>7.9407870000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F24" s="30">
         <v>298</v>
@@ -16716,21 +16503,21 @@
         <v>12.10397</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F25" s="30">
         <v>156</v>
@@ -16748,21 +16535,21 @@
         <v>16.11647</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F26" s="30">
         <v>399</v>
@@ -16780,21 +16567,21 @@
         <v>13.066979999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="30">
         <v>750</v>
@@ -16812,21 +16599,21 @@
         <v>13.319800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F28" s="30">
         <v>482</v>
@@ -16844,21 +16631,21 @@
         <v>9.2408780000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="30">
         <v>651</v>
@@ -16876,21 +16663,21 @@
         <v>9.6303999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F30" s="30">
         <v>838</v>
@@ -16908,21 +16695,21 @@
         <v>8.5617979999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F31" s="30">
         <v>193</v>
@@ -16940,21 +16727,21 @@
         <v>26.8888</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F32" s="30">
         <v>187</v>
@@ -16972,21 +16759,21 @@
         <v>6.3210230000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F33" s="30">
         <v>447</v>
@@ -17004,21 +16791,21 @@
         <v>9.9413800000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F34" s="30">
         <v>957</v>
@@ -17036,21 +16823,21 @@
         <v>8.8986599999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F35" s="30">
         <v>1473</v>
@@ -17068,21 +16855,21 @@
         <v>9.9749809999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F36" s="30">
         <v>237</v>
@@ -17100,21 +16887,21 @@
         <v>4.2497860000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" s="30">
         <v>576</v>
@@ -17132,21 +16919,21 @@
         <v>3.532572</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F38" s="30">
         <v>303</v>
@@ -17164,21 +16951,21 @@
         <v>5.1906590000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F39" s="30">
         <v>298</v>
@@ -17196,21 +16983,21 @@
         <v>7.355315</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F40" s="30">
         <v>393</v>
@@ -17228,21 +17015,21 @@
         <v>5.5986770000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F41" s="30">
         <v>1011</v>
@@ -17260,21 +17047,21 @@
         <v>3.1440730000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F42" s="30">
         <v>377</v>
@@ -17292,21 +17079,21 @@
         <v>5.6325159999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="30">
         <v>86</v>
@@ -17324,21 +17111,21 @@
         <v>7.3757859999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F44" s="30">
         <v>651</v>
@@ -17356,21 +17143,21 @@
         <v>9.9266030000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F45" s="30">
         <v>209</v>
@@ -17388,21 +17175,21 @@
         <v>11.772779999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46" s="30">
         <v>306</v>
@@ -17420,21 +17207,21 @@
         <v>6.0249610000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F47" s="30">
         <v>973</v>
@@ -17452,21 +17239,21 @@
         <v>4.3494469999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="30">
         <v>666</v>
@@ -17484,21 +17271,21 @@
         <v>4.8612609999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F49" s="30">
         <v>247</v>
@@ -17516,21 +17303,21 @@
         <v>12.909509999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F50" s="30">
         <v>453</v>
@@ -17548,21 +17335,21 @@
         <v>4.210547</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D51" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F51" s="30">
         <v>1142</v>
@@ -17580,21 +17367,21 @@
         <v>6.4008500000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F52" s="30">
         <v>1018</v>
@@ -17612,21 +17399,21 @@
         <v>6.0620440000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F53" s="30">
         <v>308</v>
@@ -17644,21 +17431,21 @@
         <v>3.4475479999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F54" s="30">
         <v>1292</v>
@@ -17676,21 +17463,21 @@
         <v>3.7596609999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F55" s="30">
         <v>1666</v>
@@ -17708,21 +17495,21 @@
         <v>4.5818199999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F56" s="30">
         <v>10419</v>
@@ -17740,21 +17527,21 @@
         <v>3.3577180000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F57" s="30">
         <v>1739</v>
@@ -17772,21 +17559,21 @@
         <v>3.9677899999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F58" s="30">
         <v>981</v>
@@ -17804,21 +17591,21 @@
         <v>11.395860000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F59" s="30">
         <v>410</v>
@@ -17836,21 +17623,21 @@
         <v>9.2623300000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F60" s="30">
         <v>1295</v>
@@ -17868,21 +17655,21 @@
         <v>4.8892629999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F61" s="30">
         <v>2276</v>
@@ -17900,21 +17687,21 @@
         <v>3.8540570000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" s="30">
         <v>1266</v>
@@ -17932,21 +17719,21 @@
         <v>3.6685189999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" s="30">
         <v>1074</v>
@@ -17964,21 +17751,21 @@
         <v>5.0084600000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F64" s="30">
         <v>1274</v>
@@ -17996,21 +17783,21 @@
         <v>3.9853420000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F65" s="30">
         <v>2313</v>
@@ -18028,21 +17815,21 @@
         <v>12.72297</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C66" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>278</v>
       </c>
       <c r="F66" s="30">
         <v>1271</v>
@@ -18060,21 +17847,21 @@
         <v>3.810578</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F67" s="30">
         <v>2057</v>
@@ -18092,21 +17879,21 @@
         <v>4.7252840000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F68" s="30">
         <v>1254</v>
@@ -18124,21 +17911,21 @@
         <v>5.3537850000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F69" s="30">
         <v>1430</v>
@@ -18156,21 +17943,21 @@
         <v>4.5473090000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F70" s="30">
         <v>67</v>
@@ -18188,21 +17975,21 @@
         <v>3.5309849999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F71" s="30">
         <v>511</v>
@@ -18220,12 +18007,12 @@
         <v>3.7820109999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>23</v>
@@ -18234,7 +18021,7 @@
         <v>85</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F72" s="30">
         <v>2006</v>
@@ -18252,21 +18039,21 @@
         <v>4.0176949999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F73" s="30">
         <v>274</v>
@@ -18284,12 +18071,12 @@
         <v>4.1349660000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C74" s="29" t="s">
         <v>23</v>
@@ -18298,7 +18085,7 @@
         <v>99</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F74" s="30">
         <v>413</v>
@@ -18316,12 +18103,12 @@
         <v>4.2681180000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>23</v>
@@ -18330,7 +18117,7 @@
         <v>72</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F75" s="30">
         <v>264</v>
@@ -18348,12 +18135,12 @@
         <v>4.3704340000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C76" s="29" t="s">
         <v>23</v>
@@ -18362,7 +18149,7 @@
         <v>169</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F76" s="30">
         <v>166</v>
@@ -18380,21 +18167,21 @@
         <v>4.1022879999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F77" s="30">
         <v>206</v>
@@ -18412,21 +18199,21 @@
         <v>4.0798709999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F78" s="30">
         <v>149</v>
@@ -18444,12 +18231,12 @@
         <v>4.4398910000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" s="29" t="s">
         <v>23</v>
@@ -18458,7 +18245,7 @@
         <v>105</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F79" s="30">
         <v>290</v>
@@ -18476,12 +18263,12 @@
         <v>10.820209999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>23</v>
@@ -18490,7 +18277,7 @@
         <v>49</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F80" s="30">
         <v>289</v>
@@ -18508,12 +18295,12 @@
         <v>4.5255080000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>23</v>
@@ -18522,7 +18309,7 @@
         <v>49</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F81" s="30">
         <v>173</v>
@@ -18540,21 +18327,21 @@
         <v>4.1824919999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F82" s="30">
         <v>83</v>
@@ -18572,12 +18359,12 @@
         <v>5.5715620000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>23</v>
@@ -18586,7 +18373,7 @@
         <v>147</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F83" s="30">
         <v>295</v>
@@ -18604,21 +18391,21 @@
         <v>4.5751249999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F84" s="30">
         <v>25</v>
@@ -18632,21 +18419,21 @@
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F85" s="30">
         <v>704</v>
@@ -18664,21 +18451,21 @@
         <v>3.7517719999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F86" s="30">
         <v>490</v>
@@ -18696,21 +18483,21 @@
         <v>3.5543149999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F87" s="30">
         <v>12</v>
@@ -18724,21 +18511,21 @@
       <c r="I87" s="31"/>
       <c r="J87" s="31"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F88" s="30">
         <v>84</v>
@@ -18756,21 +18543,21 @@
         <v>5.1995630000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F89" s="30">
         <v>139</v>
@@ -18788,21 +18575,21 @@
         <v>3.8681320000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F90" s="30">
         <v>80</v>
@@ -18820,21 +18607,21 @@
         <v>3.349129</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F91" s="30">
         <v>77</v>
@@ -18852,21 +18639,21 @@
         <v>3.4685709999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F92" s="30">
         <v>228</v>
@@ -18884,21 +18671,21 @@
         <v>5.1254670000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F93" s="30">
         <v>450</v>
@@ -18916,21 +18703,21 @@
         <v>3.735697</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E94" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="F94" s="30">
         <v>45</v>
@@ -18944,21 +18731,21 @@
       <c r="I94" s="31"/>
       <c r="J94" s="31"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F95" s="30">
         <v>72</v>
@@ -18976,21 +18763,21 @@
         <v>4.5016150000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F96" s="30">
         <v>1002</v>
@@ -19008,21 +18795,21 @@
         <v>3.288322</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D97" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F97" s="30">
         <v>65</v>
@@ -19040,21 +18827,21 @@
         <v>7.1798590000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F98" s="30">
         <v>859</v>
@@ -19072,21 +18859,21 @@
         <v>7.2890879999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D99" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F99" s="30">
         <v>159</v>
@@ -19104,21 +18891,21 @@
         <v>9.1481680000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F100" s="30">
         <v>826</v>
@@ -19136,21 +18923,21 @@
         <v>17.837990000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D101" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F101" s="30">
         <v>500</v>
@@ -19168,21 +18955,21 @@
         <v>8.9338739999999994</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D102" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F102" s="30">
         <v>1369</v>
@@ -19200,21 +18987,21 @@
         <v>8.1914309999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D103" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F103" s="30">
         <v>16</v>
@@ -19228,21 +19015,21 @@
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F104" s="30">
         <v>36</v>
@@ -19256,21 +19043,21 @@
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F105" s="30">
         <v>428</v>
@@ -19288,21 +19075,21 @@
         <v>10.90591</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D106" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F106" s="30">
         <v>348</v>
@@ -19320,21 +19107,21 @@
         <v>14.375970000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F107" s="30">
         <v>917</v>
@@ -19352,21 +19139,21 @@
         <v>17.6447</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D108" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F108" s="30">
         <v>17</v>
@@ -19380,21 +19167,21 @@
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D109" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F109" s="30">
         <v>500</v>
@@ -19412,21 +19199,21 @@
         <v>23.89443</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F110" s="30">
         <v>185</v>
@@ -19444,21 +19231,21 @@
         <v>15.91029</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F111" s="30">
         <v>1314</v>
@@ -19476,21 +19263,21 @@
         <v>18.676380000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D112" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F112" s="30">
         <v>36</v>
@@ -19504,21 +19291,21 @@
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D113" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F113" s="30">
         <v>322</v>
@@ -19536,21 +19323,21 @@
         <v>12.479839999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F114" s="30">
         <v>128</v>
@@ -19568,21 +19355,21 @@
         <v>7.1774849999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F115" s="30">
         <v>625</v>
@@ -19600,21 +19387,21 @@
         <v>7.2695590000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F116" s="30">
         <v>433</v>
@@ -19632,21 +19419,21 @@
         <v>9.5031870000000005</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D117" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F117" s="30">
         <v>389</v>
@@ -19664,21 +19451,21 @@
         <v>9.2114049999999992</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F118" s="30">
         <v>293</v>
@@ -19696,21 +19483,21 @@
         <v>10.873239999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D119" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F119" s="30">
         <v>835</v>
@@ -19728,21 +19515,21 @@
         <v>9.2621369999999992</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D120" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120" s="30">
         <v>298</v>
@@ -19760,21 +19547,21 @@
         <v>14.59013</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D121" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F121" s="30">
         <v>156</v>
@@ -19792,21 +19579,21 @@
         <v>13.195040000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D122" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F122" s="30">
         <v>399</v>
@@ -19824,21 +19611,21 @@
         <v>11.396470000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D123" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F123" s="30">
         <v>750</v>
@@ -19856,21 +19643,21 @@
         <v>16.047529999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D124" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F124" s="30">
         <v>482</v>
@@ -19888,21 +19675,21 @@
         <v>9.4350290000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D125" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F125" s="30">
         <v>651</v>
@@ -19920,21 +19707,21 @@
         <v>9.9697200000000006</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D126" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F126" s="30">
         <v>838</v>
@@ -19952,21 +19739,21 @@
         <v>8.8294840000000008</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D127" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F127" s="30">
         <v>193</v>
@@ -19984,21 +19771,21 @@
         <v>11.46346</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D128" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F128" s="30">
         <v>187</v>
@@ -20016,21 +19803,21 @@
         <v>5.7332599999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D129" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F129" s="30">
         <v>447</v>
@@ -20048,21 +19835,21 @@
         <v>7.1207039999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D130" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F130" s="30">
         <v>957</v>
@@ -20080,21 +19867,21 @@
         <v>9.7591339999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D131" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F131" s="30">
         <v>1473</v>
@@ -20112,21 +19899,21 @@
         <v>9.8600460000000005</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D132" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F132" s="30">
         <v>237</v>
@@ -20144,21 +19931,21 @@
         <v>3.774216</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F133" s="30">
         <v>576</v>
@@ -20176,21 +19963,21 @@
         <v>4.0491820000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D134" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F134" s="30">
         <v>303</v>
@@ -20208,21 +19995,21 @@
         <v>4.0279429999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D135" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F135" s="30">
         <v>298</v>
@@ -20240,21 +20027,21 @@
         <v>6.2465489999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D136" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F136" s="30">
         <v>393</v>
@@ -20272,21 +20059,21 @@
         <v>7.0315669999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D137" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F137" s="30">
         <v>1011</v>
@@ -20304,21 +20091,21 @@
         <v>3.8686430000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D138" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F138" s="30">
         <v>377</v>
@@ -20336,21 +20123,21 @@
         <v>7.1197590000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D139" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F139" s="30">
         <v>86</v>
@@ -20368,21 +20155,21 @@
         <v>5.66092</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D140" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F140" s="30">
         <v>651</v>
@@ -20400,21 +20187,21 @@
         <v>6.3402370000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D141" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F141" s="30">
         <v>209</v>
@@ -20432,21 +20219,21 @@
         <v>6.5777429999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D142" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F142" s="30">
         <v>306</v>
@@ -20464,21 +20251,21 @@
         <v>7.6152220000000002</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D143" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F143" s="30">
         <v>973</v>
@@ -20496,21 +20283,21 @@
         <v>4.4451599999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D144" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F144" s="30">
         <v>666</v>
@@ -20528,21 +20315,21 @@
         <v>4.0187869999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D145" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F145" s="30">
         <v>247</v>
@@ -20560,21 +20347,21 @@
         <v>5.699783</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F146" s="30">
         <v>453</v>
@@ -20592,21 +20379,21 @@
         <v>4.3968319999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D147" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F147" s="30">
         <v>1142</v>
@@ -20624,21 +20411,21 @@
         <v>4.7453070000000004</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D148" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F148" s="30">
         <v>1018</v>
@@ -20656,21 +20443,21 @@
         <v>6.2549890000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D149" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F149" s="30">
         <v>308</v>
@@ -20688,21 +20475,21 @@
         <v>2.752945</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D150" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F150" s="30">
         <v>1292</v>
@@ -20720,21 +20507,21 @@
         <v>3.2690700000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D151" s="29" t="s">
         <v>142</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F151" s="30">
         <v>1666</v>
@@ -20752,21 +20539,21 @@
         <v>3.282025</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D152" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F152" s="30">
         <v>10419</v>
@@ -20784,21 +20571,21 @@
         <v>3.4810590000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D153" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F153" s="30">
         <v>1739</v>
@@ -20816,21 +20603,21 @@
         <v>5.006284</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D154" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F154" s="30">
         <v>981</v>
@@ -20848,21 +20635,21 @@
         <v>5.8221179999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D155" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F155" s="30">
         <v>410</v>
@@ -20880,21 +20667,21 @@
         <v>4.7700360000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D156" s="29" t="s">
         <v>99</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F156" s="30">
         <v>1295</v>
@@ -20912,21 +20699,21 @@
         <v>4.8642880000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D157" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F157" s="30">
         <v>2276</v>
@@ -20944,21 +20731,21 @@
         <v>3.3178610000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D158" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F158" s="30">
         <v>1266</v>
@@ -20976,21 +20763,21 @@
         <v>2.9375040000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D159" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F159" s="30">
         <v>1074</v>
@@ -21008,21 +20795,21 @@
         <v>4.1823980000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D160" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E160" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F160" s="30">
         <v>1274</v>
@@ -21040,21 +20827,21 @@
         <v>3.3350930000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D161" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E161" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F161" s="30">
         <v>2313</v>
@@ -21072,21 +20859,21 @@
         <v>4.0715779999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D162" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" s="29" t="s">
         <v>277</v>
-      </c>
-      <c r="D162" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="E162" s="29" t="s">
-        <v>278</v>
       </c>
       <c r="F162" s="30">
         <v>1271</v>
@@ -21104,21 +20891,21 @@
         <v>3.0544150000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D163" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E163" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F163" s="30">
         <v>2057</v>
@@ -21136,21 +20923,21 @@
         <v>3.4134910000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D164" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E164" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F164" s="30">
         <v>1254</v>
@@ -21168,21 +20955,21 @@
         <v>3.4975040000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D165" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E165" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F165" s="30">
         <v>1430</v>
@@ -21200,21 +20987,21 @@
         <v>3.5480070000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C166" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D166" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E166" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F166" s="30">
         <v>67</v>
@@ -21232,21 +21019,21 @@
         <v>3.1195870000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C167" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D167" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E167" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F167" s="30">
         <v>511</v>
@@ -21264,12 +21051,12 @@
         <v>3.206413</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C168" s="29" t="s">
         <v>23</v>
@@ -21278,7 +21065,7 @@
         <v>85</v>
       </c>
       <c r="E168" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F168" s="30">
         <v>2006</v>
@@ -21296,21 +21083,21 @@
         <v>3.6552020000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D169" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E169" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F169" s="30">
         <v>274</v>
@@ -21328,12 +21115,12 @@
         <v>5.1600900000000003</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C170" s="29" t="s">
         <v>23</v>
@@ -21342,7 +21129,7 @@
         <v>99</v>
       </c>
       <c r="E170" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F170" s="30">
         <v>413</v>
@@ -21360,12 +21147,12 @@
         <v>4.6908770000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C171" s="29" t="s">
         <v>23</v>
@@ -21374,7 +21161,7 @@
         <v>72</v>
       </c>
       <c r="E171" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F171" s="30">
         <v>264</v>
@@ -21392,12 +21179,12 @@
         <v>3.7027739999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C172" s="29" t="s">
         <v>23</v>
@@ -21406,7 +21193,7 @@
         <v>169</v>
       </c>
       <c r="E172" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F172" s="30">
         <v>166</v>
@@ -21424,21 +21211,21 @@
         <v>3.610881</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C173" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D173" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E173" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F173" s="30">
         <v>206</v>
@@ -21456,21 +21243,21 @@
         <v>3.6253090000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C174" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E174" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F174" s="30">
         <v>149</v>
@@ -21488,12 +21275,12 @@
         <v>3.9174799999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C175" s="29" t="s">
         <v>23</v>
@@ -21502,7 +21289,7 @@
         <v>105</v>
       </c>
       <c r="E175" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F175" s="30">
         <v>290</v>
@@ -21520,12 +21307,12 @@
         <v>4.1286740000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C176" s="29" t="s">
         <v>23</v>
@@ -21534,7 +21321,7 @@
         <v>49</v>
       </c>
       <c r="E176" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F176" s="30">
         <v>289</v>
@@ -21552,12 +21339,12 @@
         <v>3.116473</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C177" s="29" t="s">
         <v>23</v>
@@ -21566,7 +21353,7 @@
         <v>49</v>
       </c>
       <c r="E177" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F177" s="30">
         <v>173</v>
@@ -21584,21 +21371,21 @@
         <v>3.2872469999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C178" s="29" t="s">
         <v>23</v>
       </c>
       <c r="D178" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E178" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F178" s="30">
         <v>83</v>
@@ -21616,12 +21403,12 @@
         <v>4.0514729999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C179" s="29" t="s">
         <v>23</v>
@@ -21630,7 +21417,7 @@
         <v>147</v>
       </c>
       <c r="E179" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F179" s="30">
         <v>295</v>
@@ -21648,21 +21435,21 @@
         <v>4.0487719999999996</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D180" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E180" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F180" s="30">
         <v>25</v>
@@ -21676,21 +21463,21 @@
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D181" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E181" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F181" s="30">
         <v>704</v>
@@ -21708,21 +21495,21 @@
         <v>2.9755859999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>85</v>
       </c>
       <c r="E182" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F182" s="30">
         <v>490</v>
@@ -21740,21 +21527,21 @@
         <v>3.8090130000000002</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D183" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F183" s="30">
         <v>12</v>
@@ -21768,21 +21555,21 @@
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D184" s="29" t="s">
         <v>72</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F184" s="30">
         <v>84</v>
@@ -21800,21 +21587,21 @@
         <v>3.5382799999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D185" s="29" t="s">
         <v>169</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F185" s="30">
         <v>139</v>
@@ -21832,21 +21619,21 @@
         <v>3.4257559999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F186" s="30">
         <v>80</v>
@@ -21864,21 +21651,21 @@
         <v>3.7054689999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D187" s="29" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E187" s="29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F187" s="30">
         <v>77</v>
@@ -21896,21 +21683,21 @@
         <v>3.063672</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D188" s="29" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F188" s="30">
         <v>228</v>
@@ -21928,21 +21715,21 @@
         <v>4.1842449999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D189" s="29" t="s">
         <v>49</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F189" s="30">
         <v>450</v>
@@ -21960,21 +21747,21 @@
         <v>3.125553</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C190" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="E190" s="29" t="s">
         <v>257</v>
-      </c>
-      <c r="D190" s="29" t="s">
-        <v>259</v>
-      </c>
-      <c r="E190" s="29" t="s">
-        <v>258</v>
       </c>
       <c r="F190" s="30">
         <v>45</v>
@@ -21988,21 +21775,21 @@
       <c r="I190" s="31"/>
       <c r="J190" s="31"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D191" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F191" s="30">
         <v>72</v>
@@ -22020,21 +21807,21 @@
         <v>4.2484520000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D192" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E192" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F192" s="30">
         <v>1002</v>
@@ -22052,21 +21839,21 @@
         <v>3.556435</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D193" s="29" t="s">
         <v>52</v>
       </c>
       <c r="E193" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F193" s="30">
         <v>65</v>
@@ -22087,161 +21874,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E60620D-0872-4C5B-8FD5-D324FC155482}">
-  <dimension ref="B4:G16"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="E4" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" s="29">
-        <v>5</v>
-      </c>
-      <c r="D5" s="29">
-        <v>60</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="29">
-        <v>4</v>
-      </c>
-      <c r="D6" s="29">
-        <v>40</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="41">
-        <v>6</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C9" s="46">
-        <f>C5*(D5/(D5+D6))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="C10" s="43">
-        <f>C6*(D5/(D5+D6))</f>
-        <v>2.4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="43">
-        <f>SUM(C9:C10)</f>
-        <v>5.4</v>
-      </c>
-      <c r="G11" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="C12" s="45">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="G14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="42"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="43"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C16" s="41">
-        <f xml:space="preserve"> 0.33*C11+0.67*C12</f>
-        <v>5.8020000000000005</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -22455,21 +22087,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
+    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Records_x0020_Date xmlns="e6ae508a-59c9-42bb-b4fe-819888132927" xsi:nil="true"/>
-    <Records_x0020_Status xmlns="e6ae508a-59c9-42bb-b4fe-819888132927">Pending</Records_x0020_Status>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22492,14 +22124,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A602FC1-DACC-4B1D-A27E-1705833C36F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{619936EC-EF42-4CC2-B464-377D7CE891A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -22514,4 +22138,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A602FC1-DACC-4B1D-A27E-1705833C36F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>